--- a/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,496 +512,676 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>000363</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>92.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.90</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1635</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8301</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8270</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7477</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5896</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4953</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519056</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>海富通内需热点混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>87.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>海富通精选贰号混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>77.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519011</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>海富通精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>78.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009490</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009240</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康蓝筹优势一年持有期股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002934</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002935</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005823</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康颐享混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005824</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰康颐享混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003495</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合A</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>53.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003496</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合C</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003516</t>
+          <t>009861</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰融安多策略灵活配置混合</t>
+          <t>鹏华新兴成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.84</t>
+          <t>44.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003561</t>
+          <t>010286</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺德成长精选灵活配置混合A</t>
+          <t>海富通成长价值混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3671</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003562</t>
+          <t>001910</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺德成长精选灵活配置混合C</t>
+          <t>泰康新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>34.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>020010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>国泰金牛创新混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9876</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>519011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>海富通精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>020023</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰事件驱动策略混合</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8879</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001910</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰康新机遇灵活配置混合</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7991</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519056</t>
+          <t>009240</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海富通内需热点混合</t>
+          <t>泰康蓝筹优势一年持有期股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>75.46</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6227</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>519056</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>海富通内需热点混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>75.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6112</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>010220</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>海富通消费核心资产混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>519015</t>
+          <t>001579</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海富通精选贰号混合</t>
+          <t>国泰大农业股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>69.79</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009861</t>
+          <t>020026</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合A</t>
+          <t>国泰成长优选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>75.91</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009862</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合C</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>75.91</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>519015</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+          <t>海富通精选贰号混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>69.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010131</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>57.83</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010220</t>
+          <t>003516</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合A</t>
+          <t>国泰融安多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010221</t>
+          <t>519606</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合C</t>
+          <t>国泰金鑫股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010286</t>
+          <t>009490</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海富通成长价值混合A</t>
+          <t>泰康科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>73.87</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1612,15 +2012,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>73.87</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>4.23</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>010221</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>海富通消费核心资产混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>020026</t>
+          <t>003495</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国泰成长优选混合</t>
+          <t>鹏华弘尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>020033</t>
+          <t>009531</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰民安增利债券A</t>
+          <t>九泰锐和18个月定期开放混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>020034</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国泰民安增利债券C</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001579</t>
+          <t>020023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国泰大农业股票</t>
+          <t>国泰事件驱动策略混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>519011</t>
+          <t>020033</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海富通精选混合</t>
+          <t>国泰民安增利债券A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>69.61</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>519606</t>
+          <t>020034</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国泰金鑫股票</t>
+          <t>国泰民安增利债券C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1826,25 +2306,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>003561</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>诺德成长精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>009862</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>鹏华新兴成长混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>002938</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
+          <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009490</t>
+          <t>003496</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>泰康科技创新一年定期开放混合</t>
+          <t>鹏华弘尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>87.81</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1938,25 +2458,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009240</t>
+          <t>003562</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>泰康蓝筹优势一年持有期股票</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1966,26 +2490,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009531</t>
+          <t>010131</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>九泰锐和18个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>56.07</t>
-        </is>
-      </c>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2466,7 +2467,6 @@
           <t>诺德成长精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>67.55</t>
@@ -2498,7 +2498,6 @@
           <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>57.83</t>
@@ -2514,6 +2513,404 @@
       </c>
       <c r="H35" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2916,4 +2917,1580 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8185</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6208</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4959</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4332</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3371</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4493,4 +4494,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4502,7 +4503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4513,17 +4514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4533,14 +4554,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.51</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4549,14 +4592,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.49</v>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0999</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4565,14 +4630,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.16</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0902</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4581,13 +4668,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8736</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5328</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3410</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5623,7 +5624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5634,17 +5635,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5654,14 +5675,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.1</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5670,14 +5713,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.51</v>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5686,14 +5751,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.49</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5702,14 +5789,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.16</v>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5718,13 +5827,887 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9605</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6590,7 +6591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6601,17 +6602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6621,14 +6642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.13</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6637,14 +6680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.1</v>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6653,14 +6718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.51</v>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6669,14 +6756,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.49</v>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6685,14 +6794,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.16</v>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2547</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6701,13 +6832,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300702-天宇股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3.68</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>11.13</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>11.51</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>4.49</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>18.16</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.13</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1849,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2969,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4545,7 +4694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4943,7 +5092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6277,7 +6426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
